--- a/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,37 +22,52 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>011174</t>
+  </si>
+  <si>
+    <t>006551</t>
+  </si>
+  <si>
+    <t>007130</t>
+  </si>
+  <si>
     <t>007497</t>
   </si>
   <si>
     <t>009263</t>
   </si>
   <si>
+    <t>003092</t>
+  </si>
+  <si>
+    <t>003093</t>
+  </si>
+  <si>
     <t>010841</t>
   </si>
   <si>
-    <t>006551</t>
-  </si>
-  <si>
-    <t>007130</t>
-  </si>
-  <si>
-    <t>011174</t>
-  </si>
-  <si>
-    <t>003092</t>
-  </si>
-  <si>
-    <t>003093</t>
+    <t>中庚价值品质一年持有期混合</t>
+  </si>
+  <si>
+    <t>中庚价值领航混合</t>
+  </si>
+  <si>
+    <t>中庚小盘价值股票</t>
   </si>
   <si>
     <t>中庚价值灵动灵活配置混合</t>
@@ -61,22 +76,46 @@
     <t>华宝红利精选混合A</t>
   </si>
   <si>
+    <t>华商丰利增强定期开放债券A</t>
+  </si>
+  <si>
+    <t>华商丰利增强定期开放债券C</t>
+  </si>
+  <si>
     <t>华宝红利精选混合C</t>
   </si>
   <si>
-    <t>中庚价值领航混合</t>
-  </si>
-  <si>
-    <t>中庚小盘价值股票</t>
-  </si>
-  <si>
-    <t>中庚价值品质一年持有期混合</t>
-  </si>
-  <si>
-    <t>华商丰利增强定期开放债券A</t>
-  </si>
-  <si>
-    <t>华商丰利增强定期开放债券C</t>
+    <t>29.42</t>
+  </si>
+  <si>
+    <t>24.79</t>
+  </si>
+  <si>
+    <t>21.97</t>
+  </si>
+  <si>
+    <t>17.94</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>88.38</t>
+  </si>
+  <si>
+    <t>92.40</t>
+  </si>
+  <si>
+    <t>93.26</t>
   </si>
   <si>
     <t>59.63</t>
@@ -85,34 +124,49 @@
     <t>87.94</t>
   </si>
   <si>
-    <t>92.40</t>
-  </si>
-  <si>
-    <t>93.26</t>
-  </si>
-  <si>
-    <t>88.38</t>
-  </si>
-  <si>
     <t>20.02</t>
   </si>
   <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
+    <t>3.91</t>
+  </si>
+  <si>
     <t>2.38</t>
   </si>
   <si>
     <t>1.07</t>
   </si>
   <si>
-    <t>3.96</t>
-  </si>
-  <si>
-    <t>3.91</t>
-  </si>
-  <si>
-    <t>4.01</t>
-  </si>
-  <si>
     <t>0.53</t>
+  </si>
+  <si>
+    <t>1.1797</t>
+  </si>
+  <si>
+    <t>0.9817</t>
+  </si>
+  <si>
+    <t>0.8590</t>
+  </si>
+  <si>
+    <t>0.4270</t>
+  </si>
+  <si>
+    <t>0.0071</t>
+  </si>
+  <si>
+    <t>0.0052</t>
+  </si>
+  <si>
+    <t>0.0031</t>
+  </si>
+  <si>
+    <t>0.0001</t>
   </si>
 </sst>
 </file>
@@ -470,13 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,164 +546,218 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,666 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3429</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1402</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1978,4 +1979,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1987,7 +1988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1998,17 +1999,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2018,14 +2039,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.32</v>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2034,14 +2077,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.45</v>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2050,13 +2115,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2196,7 +2197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2207,17 +2208,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2227,14 +2248,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>47.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.81</v>
       </c>
     </row>
     <row r="3">
@@ -2243,14 +2286,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.32</v>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4975</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2259,14 +2324,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.45</v>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2275,13 +2362,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2405,7 +2406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2416,17 +2417,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2436,14 +2457,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.95</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2452,14 +2495,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.81</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2468,14 +2533,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.32</v>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3533</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2484,14 +2571,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.45</v>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2500,13 +2609,1193 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4667</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1560</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9900</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8117</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8117</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7634</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2353</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>23.71</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>1.95</v>
+        <v>23.71</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>7.32</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>4.45</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.46</v>
       </c>
     </row>
@@ -583,6 +600,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1846,214 +2107,6 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006102</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浙商丰利增强债券</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>48.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>47.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2626</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>688888</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商聚潮产业成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4975</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010381</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙商智选价值混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1659</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010382</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商智选价值混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2134,17 +2187,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45.10</t>
+          <t>47.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3114</t>
+          <t>1.2626</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2167,26 +2220,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3283</t>
+          <t>0.4975</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2205,26 +2258,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1465</t>
+          <t>0.1659</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2243,26 +2296,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2271,6 +2324,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2932,7 +3193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3444,7 +3705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600328-中盐化工.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.14</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>23.71</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>1.95</v>
+        <v>23.71</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>7.32</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>4.45</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.46</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐润两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015698</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐润两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -843,7 +1068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2107,214 +2332,6 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006102</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浙商丰利增强债券</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>48.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>47.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2626</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>688888</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商聚潮产业成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4975</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010381</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙商智选价值混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1659</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010382</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商智选价值混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2395,17 +2412,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45.10</t>
+          <t>47.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3114</t>
+          <t>1.2626</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2428,26 +2445,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3283</t>
+          <t>0.4975</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2466,26 +2483,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1465</t>
+          <t>0.1659</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2504,26 +2521,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2532,6 +2549,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3193,7 +3418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3705,7 +3930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
